--- a/GradeDistributionsDB/Spring2016/Output/Spring2016 MS.xlsx
+++ b/GradeDistributionsDB/Spring2016/Output/Spring2016 MS.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="199">
   <si>
     <t>Course</t>
   </si>
@@ -64,13 +64,13 @@
     <t>KOSTER B</t>
   </si>
   <si>
-    <t>90.24%</t>
-  </si>
-  <si>
-    <t>7.32%</t>
-  </si>
-  <si>
-    <t>2.44%</t>
+    <t>90.63%</t>
+  </si>
+  <si>
+    <t>7.81%</t>
+  </si>
+  <si>
+    <t>1.56%</t>
   </si>
   <si>
     <t>AERS-304</t>
@@ -112,10 +112,10 @@
     <t>GEORGE A</t>
   </si>
   <si>
-    <t>97.06%</t>
-  </si>
-  <si>
-    <t>2.94%</t>
+    <t>95.38%</t>
+  </si>
+  <si>
+    <t>4.62%</t>
   </si>
   <si>
     <t>MLSC-322</t>
@@ -145,108 +145,159 @@
     <t>BURRESCIA J</t>
   </si>
   <si>
-    <t>72.50%</t>
+    <t>69.83%</t>
+  </si>
+  <si>
+    <t>24.14%</t>
+  </si>
+  <si>
+    <t>6.03%</t>
+  </si>
+  <si>
+    <t>MLSC-485</t>
+  </si>
+  <si>
+    <t>85.00%</t>
+  </si>
+  <si>
+    <t>15.00%</t>
+  </si>
+  <si>
+    <t>NVSC-205</t>
+  </si>
+  <si>
+    <t>MARRS C</t>
+  </si>
+  <si>
+    <t>92.31%</t>
+  </si>
+  <si>
+    <t>7.69%</t>
+  </si>
+  <si>
+    <t>STEINBERGER D</t>
+  </si>
+  <si>
+    <t>76.40%</t>
+  </si>
+  <si>
+    <t>20.22%</t>
+  </si>
+  <si>
+    <t>3.37%</t>
+  </si>
+  <si>
+    <t>LIEBSCH J</t>
+  </si>
+  <si>
+    <t>52.63%</t>
+  </si>
+  <si>
+    <t>24.56%</t>
+  </si>
+  <si>
+    <t>19.30%</t>
+  </si>
+  <si>
+    <t>3.51%</t>
+  </si>
+  <si>
+    <t>NVSC-301</t>
+  </si>
+  <si>
+    <t>SCHMIDT M</t>
+  </si>
+  <si>
+    <t>HAMEL A</t>
+  </si>
+  <si>
+    <t>67.86%</t>
+  </si>
+  <si>
+    <t>28.57%</t>
+  </si>
+  <si>
+    <t>3.57%</t>
+  </si>
+  <si>
+    <t>NVSC-303</t>
+  </si>
+  <si>
+    <t>PENA M</t>
+  </si>
+  <si>
+    <t>43.48%</t>
+  </si>
+  <si>
+    <t>8.70%</t>
+  </si>
+  <si>
+    <t>4.35%</t>
+  </si>
+  <si>
+    <t>MORGAN J</t>
+  </si>
+  <si>
+    <t>26.32%</t>
+  </si>
+  <si>
+    <t>36.84%</t>
+  </si>
+  <si>
+    <t>31.58%</t>
+  </si>
+  <si>
+    <t>5.26%</t>
+  </si>
+  <si>
+    <t>NVSC-401</t>
+  </si>
+  <si>
+    <t>RONEY F</t>
+  </si>
+  <si>
+    <t>80.95%</t>
+  </si>
+  <si>
+    <t>19.05%</t>
+  </si>
+  <si>
+    <t>NVSC-402</t>
+  </si>
+  <si>
+    <t>BRIGHT J</t>
+  </si>
+  <si>
+    <t>68.75%</t>
+  </si>
+  <si>
+    <t>29.17%</t>
+  </si>
+  <si>
+    <t>2.08%</t>
+  </si>
+  <si>
+    <t>NVSC-485</t>
+  </si>
+  <si>
+    <t>MUELLER M</t>
+  </si>
+  <si>
+    <t>66.67%</t>
+  </si>
+  <si>
+    <t>33.33%</t>
+  </si>
+  <si>
+    <t>SOMS-111</t>
+  </si>
+  <si>
+    <t>VELA C</t>
   </si>
   <si>
     <t>20.00%</t>
   </si>
   <si>
-    <t>7.50%</t>
-  </si>
-  <si>
-    <t>MLSC-485</t>
-  </si>
-  <si>
-    <t>85.00%</t>
-  </si>
-  <si>
-    <t>15.00%</t>
-  </si>
-  <si>
-    <t>NVSC-205</t>
-  </si>
-  <si>
-    <t>MARRS C</t>
-  </si>
-  <si>
-    <t>92.31%</t>
-  </si>
-  <si>
-    <t>7.69%</t>
-  </si>
-  <si>
-    <t>STEINBERGER D</t>
-  </si>
-  <si>
-    <t>76.40%</t>
-  </si>
-  <si>
-    <t>20.22%</t>
-  </si>
-  <si>
-    <t>3.37%</t>
-  </si>
-  <si>
-    <t>LIEBSCH J</t>
-  </si>
-  <si>
-    <t>51.61%</t>
-  </si>
-  <si>
-    <t>29.03%</t>
-  </si>
-  <si>
-    <t>16.13%</t>
-  </si>
-  <si>
-    <t>3.23%</t>
-  </si>
-  <si>
-    <t>NVSC-401</t>
-  </si>
-  <si>
-    <t>RONEY F</t>
-  </si>
-  <si>
-    <t>80.95%</t>
-  </si>
-  <si>
-    <t>19.05%</t>
-  </si>
-  <si>
-    <t>NVSC-402</t>
-  </si>
-  <si>
-    <t>BRIGHT J</t>
-  </si>
-  <si>
-    <t>68.75%</t>
-  </si>
-  <si>
-    <t>29.17%</t>
-  </si>
-  <si>
-    <t>2.08%</t>
-  </si>
-  <si>
-    <t>NVSC-485</t>
-  </si>
-  <si>
-    <t>MUELLER M</t>
-  </si>
-  <si>
-    <t>66.67%</t>
-  </si>
-  <si>
-    <t>33.33%</t>
-  </si>
-  <si>
-    <t>SOMS-111</t>
-  </si>
-  <si>
-    <t>VELA C</t>
-  </si>
-  <si>
     <t>30.00%</t>
   </si>
   <si>
@@ -262,256 +313,283 @@
     <t>BRUMMETT K</t>
   </si>
   <si>
-    <t>80.65%</t>
-  </si>
-  <si>
-    <t>19.35%</t>
+    <t>76.77%</t>
+  </si>
+  <si>
+    <t>22.22%</t>
+  </si>
+  <si>
+    <t>1.01%</t>
   </si>
   <si>
     <t>HOFFMAN J</t>
   </si>
   <si>
-    <t>97.14%</t>
+    <t>75.36%</t>
+  </si>
+  <si>
+    <t>23.19%</t>
+  </si>
+  <si>
+    <t>1.45%</t>
+  </si>
+  <si>
+    <t>WHITAKER B</t>
+  </si>
+  <si>
+    <t>78.10%</t>
+  </si>
+  <si>
+    <t>1.90%</t>
+  </si>
+  <si>
+    <t>DULKE M</t>
+  </si>
+  <si>
+    <t>56.19%</t>
+  </si>
+  <si>
+    <t>31.43%</t>
+  </si>
+  <si>
+    <t>8.57%</t>
   </si>
   <si>
     <t>2.86%</t>
   </si>
   <si>
-    <t>WHITAKER B</t>
-  </si>
-  <si>
-    <t>78.10%</t>
-  </si>
-  <si>
-    <t>1.90%</t>
-  </si>
-  <si>
-    <t>DULKE M</t>
-  </si>
-  <si>
-    <t>56.58%</t>
-  </si>
-  <si>
-    <t>31.58%</t>
-  </si>
-  <si>
-    <t>9.21%</t>
+    <t>0.95%</t>
+  </si>
+  <si>
+    <t>PARKER C</t>
+  </si>
+  <si>
+    <t>HAWES S</t>
+  </si>
+  <si>
+    <t>BYRNE W</t>
+  </si>
+  <si>
+    <t>98.53%</t>
+  </si>
+  <si>
+    <t>1.47%</t>
+  </si>
+  <si>
+    <t>NORRIS D</t>
+  </si>
+  <si>
+    <t>80.88%</t>
+  </si>
+  <si>
+    <t>19.12%</t>
+  </si>
+  <si>
+    <t>SOMS-280</t>
+  </si>
+  <si>
+    <t>HASSMAN D</t>
+  </si>
+  <si>
+    <t>44.79%</t>
+  </si>
+  <si>
+    <t>36.46%</t>
+  </si>
+  <si>
+    <t>11.46%</t>
+  </si>
+  <si>
+    <t>3.13%</t>
+  </si>
+  <si>
+    <t>SCHLATHER B</t>
+  </si>
+  <si>
+    <t>73.68%</t>
+  </si>
+  <si>
+    <t>21.05%</t>
+  </si>
+  <si>
+    <t>3.95%</t>
   </si>
   <si>
     <t>1.32%</t>
   </si>
   <si>
-    <t>PARKER C</t>
-  </si>
-  <si>
-    <t>HAWES S</t>
-  </si>
-  <si>
-    <t>BYRNE W</t>
-  </si>
-  <si>
-    <t>NORRIS D</t>
-  </si>
-  <si>
-    <t>80.88%</t>
-  </si>
-  <si>
-    <t>19.12%</t>
-  </si>
-  <si>
-    <t>SOMS-280</t>
-  </si>
-  <si>
-    <t>HASSMAN D</t>
+    <t>FELTS T</t>
+  </si>
+  <si>
+    <t>53.85%</t>
+  </si>
+  <si>
+    <t>40.66%</t>
+  </si>
+  <si>
+    <t>4.95%</t>
+  </si>
+  <si>
+    <t>0.55%</t>
+  </si>
+  <si>
+    <t>GARDNER J</t>
+  </si>
+  <si>
+    <t>98.89%</t>
+  </si>
+  <si>
+    <t>1.11%</t>
+  </si>
+  <si>
+    <t>HAUFFE F</t>
+  </si>
+  <si>
+    <t>83.33%</t>
+  </si>
+  <si>
+    <t>16.67%</t>
+  </si>
+  <si>
+    <t>SOMS-381</t>
+  </si>
+  <si>
+    <t>CRAWFORD K</t>
+  </si>
+  <si>
+    <t>74.07%</t>
+  </si>
+  <si>
+    <t>14.81%</t>
+  </si>
+  <si>
+    <t>3.70%</t>
+  </si>
+  <si>
+    <t>7.41%</t>
+  </si>
+  <si>
+    <t>PRESTON T</t>
+  </si>
+  <si>
+    <t>91.30%</t>
+  </si>
+  <si>
+    <t>SCOGGINS J</t>
+  </si>
+  <si>
+    <t>89.06%</t>
+  </si>
+  <si>
+    <t>9.38%</t>
+  </si>
+  <si>
+    <t>WENTLING D</t>
+  </si>
+  <si>
+    <t>92.73%</t>
+  </si>
+  <si>
+    <t>5.45%</t>
+  </si>
+  <si>
+    <t>1.82%</t>
+  </si>
+  <si>
+    <t>SULLINS A</t>
+  </si>
+  <si>
+    <t>82.22%</t>
+  </si>
+  <si>
+    <t>15.56%</t>
+  </si>
+  <si>
+    <t>2.22%</t>
+  </si>
+  <si>
+    <t>FRYSINGER V</t>
+  </si>
+  <si>
+    <t>69.77%</t>
+  </si>
+  <si>
+    <t>30.23%</t>
+  </si>
+  <si>
+    <t>MCCLURE M</t>
+  </si>
+  <si>
+    <t>69.23%</t>
+  </si>
+  <si>
+    <t>11.54%</t>
+  </si>
+  <si>
+    <t>ARMSTRONG A</t>
+  </si>
+  <si>
+    <t>81.82%</t>
+  </si>
+  <si>
+    <t>4.55%</t>
+  </si>
+  <si>
+    <t>9.09%</t>
+  </si>
+  <si>
+    <t>SHEHANE M</t>
+  </si>
+  <si>
+    <t>78.95%</t>
+  </si>
+  <si>
+    <t>7.89%</t>
+  </si>
+  <si>
+    <t>2.63%</t>
+  </si>
+  <si>
+    <t>IVEY C</t>
+  </si>
+  <si>
+    <t>SOMS-482</t>
+  </si>
+  <si>
+    <t>STRUMINGER R</t>
+  </si>
+  <si>
+    <t>89.66%</t>
+  </si>
+  <si>
+    <t>10.34%</t>
+  </si>
+  <si>
+    <t>CUNNINGHAM M</t>
   </si>
   <si>
     <t>54.55%</t>
   </si>
   <si>
-    <t>32.73%</t>
-  </si>
-  <si>
-    <t>7.27%</t>
-  </si>
-  <si>
-    <t>1.82%</t>
-  </si>
-  <si>
-    <t>3.64%</t>
-  </si>
-  <si>
-    <t>SCHLATHER B</t>
-  </si>
-  <si>
-    <t>89.47%</t>
-  </si>
-  <si>
-    <t>10.53%</t>
-  </si>
-  <si>
-    <t>FELTS T</t>
-  </si>
-  <si>
-    <t>54.42%</t>
-  </si>
-  <si>
-    <t>41.50%</t>
-  </si>
-  <si>
-    <t>4.08%</t>
-  </si>
-  <si>
-    <t>GARDNER J</t>
-  </si>
-  <si>
-    <t>98.89%</t>
-  </si>
-  <si>
-    <t>1.11%</t>
-  </si>
-  <si>
-    <t>HAUFFE F</t>
-  </si>
-  <si>
-    <t>85.39%</t>
-  </si>
-  <si>
-    <t>14.61%</t>
-  </si>
-  <si>
-    <t>SOMS-381</t>
-  </si>
-  <si>
-    <t>CRAWFORD K</t>
-  </si>
-  <si>
-    <t>74.07%</t>
-  </si>
-  <si>
-    <t>14.81%</t>
-  </si>
-  <si>
-    <t>3.70%</t>
-  </si>
-  <si>
-    <t>7.41%</t>
-  </si>
-  <si>
-    <t>SCOGGINS J</t>
-  </si>
-  <si>
-    <t>89.06%</t>
-  </si>
-  <si>
-    <t>9.38%</t>
-  </si>
-  <si>
-    <t>1.56%</t>
-  </si>
-  <si>
-    <t>SULLINS A</t>
-  </si>
-  <si>
-    <t>82.22%</t>
-  </si>
-  <si>
-    <t>15.56%</t>
-  </si>
-  <si>
-    <t>2.22%</t>
-  </si>
-  <si>
-    <t>FRYSINGER V</t>
-  </si>
-  <si>
-    <t>69.77%</t>
-  </si>
-  <si>
-    <t>30.23%</t>
-  </si>
-  <si>
-    <t>MCCLURE M</t>
-  </si>
-  <si>
-    <t>69.23%</t>
-  </si>
-  <si>
-    <t>11.54%</t>
-  </si>
-  <si>
-    <t>WENTLING D</t>
-  </si>
-  <si>
-    <t>ARMSTRONG A</t>
-  </si>
-  <si>
-    <t>81.82%</t>
-  </si>
-  <si>
-    <t>4.55%</t>
-  </si>
-  <si>
-    <t>9.09%</t>
-  </si>
-  <si>
-    <t>SHEHANE M</t>
-  </si>
-  <si>
-    <t>78.95%</t>
-  </si>
-  <si>
-    <t>5.26%</t>
-  </si>
-  <si>
-    <t>7.89%</t>
-  </si>
-  <si>
-    <t>2.63%</t>
-  </si>
-  <si>
-    <t>PRESTON T</t>
-  </si>
-  <si>
-    <t>91.30%</t>
-  </si>
-  <si>
-    <t>8.70%</t>
-  </si>
-  <si>
-    <t>SOMS-482</t>
-  </si>
-  <si>
-    <t>STRUMINGER R</t>
+    <t>45.45%</t>
+  </si>
+  <si>
+    <t>RANDOLPH D</t>
+  </si>
+  <si>
+    <t>71.43%</t>
+  </si>
+  <si>
+    <t>BROWN T</t>
+  </si>
+  <si>
+    <t>HUMPHREYS L</t>
+  </si>
+  <si>
+    <t>MOONEY K</t>
   </si>
   <si>
     <t>85.71%</t>
-  </si>
-  <si>
-    <t>14.29%</t>
-  </si>
-  <si>
-    <t>CUNNINGHAM M</t>
-  </si>
-  <si>
-    <t>45.45%</t>
-  </si>
-  <si>
-    <t>RANDOLPH D</t>
-  </si>
-  <si>
-    <t>71.43%</t>
-  </si>
-  <si>
-    <t>28.57%</t>
-  </si>
-  <si>
-    <t>BROWN T</t>
-  </si>
-  <si>
-    <t>HUMPHREYS L</t>
-  </si>
-  <si>
-    <t>MOONEY K</t>
   </si>
   <si>
     <t>7.14%</t>
@@ -869,7 +947,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H86"/>
+  <dimension ref="A1:H95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -941,7 +1019,7 @@
         <v>15</v>
       </c>
       <c r="C6" t="n">
-        <v>3.8285</v>
+        <v>3.8662</v>
       </c>
       <c r="D6" t="s">
         <v>16</v>
@@ -1053,7 +1131,7 @@
         <v>31</v>
       </c>
       <c r="C18" t="n">
-        <v>3.9655</v>
+        <v>3.9495</v>
       </c>
       <c r="D18" t="s">
         <v>32</v>
@@ -1109,7 +1187,7 @@
         <v>42</v>
       </c>
       <c r="C24" t="n">
-        <v>3.6498</v>
+        <v>3.6365</v>
       </c>
       <c r="D24" t="s">
         <v>43</v>
@@ -1211,7 +1289,7 @@
         <v>57</v>
       </c>
       <c r="C32" t="n">
-        <v>3.29</v>
+        <v>3.2605</v>
       </c>
       <c r="D32" t="s">
         <v>58</v>
@@ -1239,171 +1317,171 @@
         <v>63</v>
       </c>
       <c r="C35" t="n">
+        <v>4</v>
+      </c>
+      <c r="D35" t="s">
+        <v>21</v>
+      </c>
+      <c r="E35" t="s">
+        <v>13</v>
+      </c>
+      <c r="F35" t="s">
+        <v>13</v>
+      </c>
+      <c r="G35" t="s">
+        <v>13</v>
+      </c>
+      <c r="H35" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="B36" t="s">
+        <v>64</v>
+      </c>
+      <c r="C36" t="n">
+        <v>3.643</v>
+      </c>
+      <c r="D36" t="s">
+        <v>65</v>
+      </c>
+      <c r="E36" t="s">
+        <v>66</v>
+      </c>
+      <c r="F36" t="s">
+        <v>67</v>
+      </c>
+      <c r="G36" t="s">
+        <v>13</v>
+      </c>
+      <c r="H36" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="B39" t="s">
+        <v>69</v>
+      </c>
+      <c r="C39" t="n">
+        <v>3.261</v>
+      </c>
+      <c r="D39" t="s">
+        <v>70</v>
+      </c>
+      <c r="E39" t="s">
+        <v>70</v>
+      </c>
+      <c r="F39" t="s">
+        <v>71</v>
+      </c>
+      <c r="G39" t="s">
+        <v>72</v>
+      </c>
+      <c r="H39" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="B40" t="s">
+        <v>73</v>
+      </c>
+      <c r="C40" t="n">
+        <v>2.842</v>
+      </c>
+      <c r="D40" t="s">
+        <v>74</v>
+      </c>
+      <c r="E40" t="s">
+        <v>75</v>
+      </c>
+      <c r="F40" t="s">
+        <v>76</v>
+      </c>
+      <c r="G40" t="s">
+        <v>77</v>
+      </c>
+      <c r="H40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="B43" t="s">
+        <v>79</v>
+      </c>
+      <c r="C43" t="n">
         <v>3.81</v>
       </c>
-      <c r="D35" t="s">
-        <v>64</v>
-      </c>
-      <c r="E35" t="s">
-        <v>65</v>
-      </c>
-      <c r="F35" t="s">
-        <v>13</v>
-      </c>
-      <c r="G35" t="s">
-        <v>13</v>
-      </c>
-      <c r="H35" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="B38" t="s">
-        <v>67</v>
-      </c>
-      <c r="C38" t="n">
+      <c r="D43" t="s">
+        <v>80</v>
+      </c>
+      <c r="E43" t="s">
+        <v>81</v>
+      </c>
+      <c r="F43" t="s">
+        <v>13</v>
+      </c>
+      <c r="G43" t="s">
+        <v>13</v>
+      </c>
+      <c r="H43" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="B46" t="s">
+        <v>83</v>
+      </c>
+      <c r="C46" t="n">
         <v>3.671</v>
       </c>
-      <c r="D38" t="s">
-        <v>68</v>
-      </c>
-      <c r="E38" t="s">
-        <v>69</v>
-      </c>
-      <c r="F38" t="s">
-        <v>70</v>
-      </c>
-      <c r="G38" t="s">
-        <v>13</v>
-      </c>
-      <c r="H38" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
-      <c r="B41" t="s">
-        <v>72</v>
-      </c>
-      <c r="C41" t="n">
-        <v>3.667</v>
-      </c>
-      <c r="D41" t="s">
-        <v>73</v>
-      </c>
-      <c r="E41" t="s">
-        <v>74</v>
-      </c>
-      <c r="F41" t="s">
-        <v>13</v>
-      </c>
-      <c r="G41" t="s">
-        <v>13</v>
-      </c>
-      <c r="H41" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
-      <c r="B42" t="s">
-        <v>57</v>
-      </c>
-      <c r="C42" t="n">
-        <v>4</v>
-      </c>
-      <c r="D42" t="s">
-        <v>21</v>
-      </c>
-      <c r="E42" t="s">
-        <v>13</v>
-      </c>
-      <c r="F42" t="s">
-        <v>13</v>
-      </c>
-      <c r="G42" t="s">
-        <v>13</v>
-      </c>
-      <c r="H42" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
-      <c r="A44" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
-      <c r="B45" t="s">
-        <v>76</v>
-      </c>
-      <c r="C45" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="D45" t="s">
-        <v>44</v>
-      </c>
-      <c r="E45" t="s">
-        <v>77</v>
-      </c>
-      <c r="F45" t="s">
-        <v>77</v>
-      </c>
-      <c r="G45" t="s">
-        <v>78</v>
-      </c>
-      <c r="H45" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
-      <c r="A47" t="s">
-        <v>79</v>
+      <c r="D46" t="s">
+        <v>84</v>
+      </c>
+      <c r="E46" t="s">
+        <v>85</v>
+      </c>
+      <c r="F46" t="s">
+        <v>86</v>
+      </c>
+      <c r="G46" t="s">
+        <v>13</v>
+      </c>
+      <c r="H46" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="48" spans="1:8">
-      <c r="B48" t="s">
-        <v>80</v>
-      </c>
-      <c r="C48" t="n">
-        <v>4</v>
-      </c>
-      <c r="D48" t="s">
-        <v>21</v>
-      </c>
-      <c r="E48" t="s">
-        <v>13</v>
-      </c>
-      <c r="F48" t="s">
-        <v>13</v>
-      </c>
-      <c r="G48" t="s">
-        <v>13</v>
-      </c>
-      <c r="H48" t="s">
-        <v>13</v>
+      <c r="A48" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="49" spans="1:8">
       <c r="B49" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="C49" t="n">
-        <v>3.806</v>
+        <v>3.667</v>
       </c>
       <c r="D49" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="E49" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="F49" t="s">
         <v>13</v>
@@ -1417,16 +1495,16 @@
     </row>
     <row r="50" spans="1:8">
       <c r="B50" t="s">
-        <v>84</v>
+        <v>57</v>
       </c>
       <c r="C50" t="n">
-        <v>3.971</v>
+        <v>4</v>
       </c>
       <c r="D50" t="s">
-        <v>85</v>
+        <v>21</v>
       </c>
       <c r="E50" t="s">
-        <v>86</v>
+        <v>13</v>
       </c>
       <c r="F50" t="s">
         <v>13</v>
@@ -1438,210 +1516,169 @@
         <v>13</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
-      <c r="B51" t="s">
-        <v>87</v>
-      </c>
-      <c r="C51" t="n">
-        <v>3.7233</v>
-      </c>
-      <c r="D51" t="s">
-        <v>88</v>
-      </c>
-      <c r="E51" t="s">
-        <v>44</v>
-      </c>
-      <c r="F51" t="s">
-        <v>13</v>
-      </c>
-      <c r="G51" t="s">
-        <v>13</v>
-      </c>
-      <c r="H51" t="s">
-        <v>89</v>
-      </c>
-    </row>
     <row r="52" spans="1:8">
-      <c r="B52" t="s">
-        <v>90</v>
-      </c>
-      <c r="C52" t="n">
-        <v>3.429</v>
-      </c>
-      <c r="D52" t="s">
+      <c r="A52" t="s">
         <v>91</v>
-      </c>
-      <c r="E52" t="s">
-        <v>92</v>
-      </c>
-      <c r="F52" t="s">
-        <v>93</v>
-      </c>
-      <c r="G52" t="s">
-        <v>94</v>
-      </c>
-      <c r="H52" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="53" spans="1:8">
       <c r="B53" t="s">
+        <v>92</v>
+      </c>
+      <c r="C53" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="D53" t="s">
+        <v>93</v>
+      </c>
+      <c r="E53" t="s">
+        <v>94</v>
+      </c>
+      <c r="F53" t="s">
+        <v>94</v>
+      </c>
+      <c r="G53" t="s">
         <v>95</v>
       </c>
-      <c r="C53" t="n">
-        <v>4</v>
-      </c>
-      <c r="D53" t="s">
-        <v>21</v>
-      </c>
-      <c r="E53" t="s">
-        <v>13</v>
-      </c>
-      <c r="F53" t="s">
-        <v>13</v>
-      </c>
-      <c r="G53" t="s">
-        <v>13</v>
-      </c>
       <c r="H53" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
-      <c r="B54" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" t="s">
         <v>96</v>
-      </c>
-      <c r="C54" t="n">
-        <v>4</v>
-      </c>
-      <c r="D54" t="s">
-        <v>21</v>
-      </c>
-      <c r="E54" t="s">
-        <v>13</v>
-      </c>
-      <c r="F54" t="s">
-        <v>13</v>
-      </c>
-      <c r="G54" t="s">
-        <v>13</v>
-      </c>
-      <c r="H54" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
-      <c r="B55" t="s">
-        <v>97</v>
-      </c>
-      <c r="C55" t="n">
-        <v>3.971</v>
-      </c>
-      <c r="D55" t="s">
-        <v>32</v>
-      </c>
-      <c r="E55" t="s">
-        <v>33</v>
-      </c>
-      <c r="F55" t="s">
-        <v>13</v>
-      </c>
-      <c r="G55" t="s">
-        <v>13</v>
-      </c>
-      <c r="H55" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="56" spans="1:8">
       <c r="B56" t="s">
+        <v>97</v>
+      </c>
+      <c r="C56" t="n">
+        <v>4</v>
+      </c>
+      <c r="D56" t="s">
+        <v>21</v>
+      </c>
+      <c r="E56" t="s">
+        <v>13</v>
+      </c>
+      <c r="F56" t="s">
+        <v>13</v>
+      </c>
+      <c r="G56" t="s">
+        <v>13</v>
+      </c>
+      <c r="H56" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="B57" t="s">
         <v>98</v>
       </c>
-      <c r="C56" t="n">
-        <v>3.8085</v>
-      </c>
-      <c r="D56" t="s">
+      <c r="C57" t="n">
+        <v>3.7393</v>
+      </c>
+      <c r="D57" t="s">
         <v>99</v>
       </c>
-      <c r="E56" t="s">
+      <c r="E57" t="s">
         <v>100</v>
       </c>
-      <c r="F56" t="s">
-        <v>13</v>
-      </c>
-      <c r="G56" t="s">
-        <v>13</v>
-      </c>
-      <c r="H56" t="s">
-        <v>13</v>
+      <c r="F57" t="s">
+        <v>13</v>
+      </c>
+      <c r="G57" t="s">
+        <v>13</v>
+      </c>
+      <c r="H57" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" t="s">
-        <v>101</v>
+      <c r="B58" t="s">
+        <v>102</v>
+      </c>
+      <c r="C58" t="n">
+        <v>3.7355</v>
+      </c>
+      <c r="D58" t="s">
+        <v>103</v>
+      </c>
+      <c r="E58" t="s">
+        <v>104</v>
+      </c>
+      <c r="F58" t="s">
+        <v>105</v>
+      </c>
+      <c r="G58" t="s">
+        <v>13</v>
+      </c>
+      <c r="H58" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="59" spans="1:8">
       <c r="B59" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C59" t="n">
-        <v>3.347</v>
+        <v>3.7233</v>
       </c>
       <c r="D59" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E59" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="F59" t="s">
-        <v>105</v>
+        <v>13</v>
       </c>
       <c r="G59" t="s">
-        <v>106</v>
+        <v>13</v>
       </c>
       <c r="H59" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="60" spans="1:8">
       <c r="B60" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C60" t="n">
-        <v>3.895</v>
+        <v>3.401</v>
       </c>
       <c r="D60" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E60" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F60" t="s">
-        <v>13</v>
+        <v>112</v>
       </c>
       <c r="G60" t="s">
-        <v>13</v>
+        <v>113</v>
       </c>
       <c r="H60" t="s">
-        <v>13</v>
+        <v>114</v>
       </c>
     </row>
     <row r="61" spans="1:8">
       <c r="B61" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C61" t="n">
-        <v>3.5202</v>
+        <v>4</v>
       </c>
       <c r="D61" t="s">
-        <v>112</v>
+        <v>21</v>
       </c>
       <c r="E61" t="s">
-        <v>113</v>
+        <v>13</v>
       </c>
       <c r="F61" t="s">
-        <v>114</v>
+        <v>13</v>
       </c>
       <c r="G61" t="s">
         <v>13</v>
@@ -1652,16 +1689,16 @@
     </row>
     <row r="62" spans="1:8">
       <c r="B62" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C62" t="n">
-        <v>3.989</v>
+        <v>4</v>
       </c>
       <c r="D62" t="s">
-        <v>116</v>
+        <v>21</v>
       </c>
       <c r="E62" t="s">
-        <v>117</v>
+        <v>13</v>
       </c>
       <c r="F62" t="s">
         <v>13</v>
@@ -1675,96 +1712,96 @@
     </row>
     <row r="63" spans="1:8">
       <c r="B63" t="s">
+        <v>117</v>
+      </c>
+      <c r="C63" t="n">
+        <v>3.9855</v>
+      </c>
+      <c r="D63" t="s">
         <v>118</v>
       </c>
-      <c r="C63" t="n">
-        <v>3.8535</v>
-      </c>
-      <c r="D63" t="s">
+      <c r="E63" t="s">
         <v>119</v>
       </c>
-      <c r="E63" t="s">
+      <c r="F63" t="s">
+        <v>13</v>
+      </c>
+      <c r="G63" t="s">
+        <v>13</v>
+      </c>
+      <c r="H63" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="B64" t="s">
         <v>120</v>
       </c>
-      <c r="F63" t="s">
-        <v>13</v>
-      </c>
-      <c r="G63" t="s">
-        <v>13</v>
-      </c>
-      <c r="H63" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
-      <c r="A65" t="s">
+      <c r="C64" t="n">
+        <v>3.8085</v>
+      </c>
+      <c r="D64" t="s">
         <v>121</v>
       </c>
+      <c r="E64" t="s">
+        <v>122</v>
+      </c>
+      <c r="F64" t="s">
+        <v>13</v>
+      </c>
+      <c r="G64" t="s">
+        <v>13</v>
+      </c>
+      <c r="H64" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="66" spans="1:8">
-      <c r="B66" t="s">
-        <v>122</v>
-      </c>
-      <c r="C66" t="n">
-        <v>3.482</v>
-      </c>
-      <c r="D66" t="s">
+      <c r="A66" t="s">
         <v>123</v>
-      </c>
-      <c r="E66" t="s">
-        <v>124</v>
-      </c>
-      <c r="F66" t="s">
-        <v>125</v>
-      </c>
-      <c r="G66" t="s">
-        <v>13</v>
-      </c>
-      <c r="H66" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="67" spans="1:8">
       <c r="B67" t="s">
+        <v>124</v>
+      </c>
+      <c r="C67" t="n">
+        <v>3.207</v>
+      </c>
+      <c r="D67" t="s">
+        <v>125</v>
+      </c>
+      <c r="E67" t="s">
+        <v>126</v>
+      </c>
+      <c r="F67" t="s">
         <v>127</v>
       </c>
-      <c r="C67" t="n">
-        <v>3.8943</v>
-      </c>
-      <c r="D67" t="s">
+      <c r="G67" t="s">
+        <v>29</v>
+      </c>
+      <c r="H67" t="s">
         <v>128</v>
-      </c>
-      <c r="E67" t="s">
-        <v>129</v>
-      </c>
-      <c r="F67" t="s">
-        <v>130</v>
-      </c>
-      <c r="G67" t="s">
-        <v>13</v>
-      </c>
-      <c r="H67" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="68" spans="1:8">
       <c r="B68" t="s">
+        <v>129</v>
+      </c>
+      <c r="C68" t="n">
+        <v>3.671</v>
+      </c>
+      <c r="D68" t="s">
+        <v>130</v>
+      </c>
+      <c r="E68" t="s">
         <v>131</v>
       </c>
-      <c r="C68" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="D68" t="s">
+      <c r="F68" t="s">
         <v>132</v>
       </c>
-      <c r="E68" t="s">
+      <c r="G68" t="s">
         <v>133</v>
-      </c>
-      <c r="F68" t="s">
-        <v>134</v>
-      </c>
-      <c r="G68" t="s">
-        <v>13</v>
       </c>
       <c r="H68" t="s">
         <v>13</v>
@@ -1772,22 +1809,22 @@
     </row>
     <row r="69" spans="1:8">
       <c r="B69" t="s">
+        <v>134</v>
+      </c>
+      <c r="C69" t="n">
+        <v>3.4953</v>
+      </c>
+      <c r="D69" t="s">
         <v>135</v>
       </c>
-      <c r="C69" t="n">
-        <v>3.698</v>
-      </c>
-      <c r="D69" t="s">
+      <c r="E69" t="s">
         <v>136</v>
       </c>
-      <c r="E69" t="s">
+      <c r="F69" t="s">
         <v>137</v>
       </c>
-      <c r="F69" t="s">
-        <v>13</v>
-      </c>
       <c r="G69" t="s">
-        <v>13</v>
+        <v>138</v>
       </c>
       <c r="H69" t="s">
         <v>13</v>
@@ -1795,22 +1832,22 @@
     </row>
     <row r="70" spans="1:8">
       <c r="B70" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C70" t="n">
-        <v>3.423</v>
+        <v>3.989</v>
       </c>
       <c r="D70" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E70" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F70" t="s">
-        <v>140</v>
+        <v>13</v>
       </c>
       <c r="G70" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="H70" t="s">
         <v>13</v>
@@ -1818,16 +1855,16 @@
     </row>
     <row r="71" spans="1:8">
       <c r="B71" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>3.8327</v>
       </c>
       <c r="D71" t="s">
-        <v>21</v>
+        <v>143</v>
       </c>
       <c r="E71" t="s">
-        <v>13</v>
+        <v>144</v>
       </c>
       <c r="F71" t="s">
         <v>13</v>
@@ -1839,92 +1876,92 @@
         <v>13</v>
       </c>
     </row>
-    <row r="72" spans="1:8">
-      <c r="B72" t="s">
-        <v>142</v>
-      </c>
-      <c r="C72" t="n">
-        <v>3.636</v>
-      </c>
-      <c r="D72" t="s">
-        <v>143</v>
-      </c>
-      <c r="E72" t="s">
-        <v>144</v>
-      </c>
-      <c r="F72" t="s">
+    <row r="73" spans="1:8">
+      <c r="A73" t="s">
         <v>145</v>
-      </c>
-      <c r="G72" t="s">
-        <v>144</v>
-      </c>
-      <c r="H72" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
-      <c r="B73" t="s">
-        <v>146</v>
-      </c>
-      <c r="C73" t="n">
-        <v>3.5265</v>
-      </c>
-      <c r="D73" t="s">
-        <v>147</v>
-      </c>
-      <c r="E73" t="s">
-        <v>148</v>
-      </c>
-      <c r="F73" t="s">
-        <v>149</v>
-      </c>
-      <c r="G73" t="s">
-        <v>148</v>
-      </c>
-      <c r="H73" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="74" spans="1:8">
       <c r="B74" t="s">
+        <v>146</v>
+      </c>
+      <c r="C74" t="n">
+        <v>3.482</v>
+      </c>
+      <c r="D74" t="s">
+        <v>147</v>
+      </c>
+      <c r="E74" t="s">
+        <v>148</v>
+      </c>
+      <c r="F74" t="s">
+        <v>149</v>
+      </c>
+      <c r="G74" t="s">
+        <v>13</v>
+      </c>
+      <c r="H74" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="B75" t="s">
         <v>151</v>
       </c>
-      <c r="C74" t="n">
+      <c r="C75" t="n">
         <v>3.913</v>
       </c>
-      <c r="D74" t="s">
+      <c r="D75" t="s">
         <v>152</v>
       </c>
-      <c r="E74" t="s">
+      <c r="E75" t="s">
+        <v>71</v>
+      </c>
+      <c r="F75" t="s">
+        <v>13</v>
+      </c>
+      <c r="G75" t="s">
+        <v>13</v>
+      </c>
+      <c r="H75" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="B76" t="s">
         <v>153</v>
       </c>
-      <c r="F74" t="s">
-        <v>13</v>
-      </c>
-      <c r="G74" t="s">
-        <v>13</v>
-      </c>
-      <c r="H74" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
-      <c r="A76" t="s">
+      <c r="C76" t="n">
+        <v>3.8943</v>
+      </c>
+      <c r="D76" t="s">
         <v>154</v>
+      </c>
+      <c r="E76" t="s">
+        <v>155</v>
+      </c>
+      <c r="F76" t="s">
+        <v>18</v>
+      </c>
+      <c r="G76" t="s">
+        <v>13</v>
+      </c>
+      <c r="H76" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="77" spans="1:8">
       <c r="B77" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C77" t="n">
-        <v>3.857</v>
+        <v>3.875</v>
       </c>
       <c r="D77" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E77" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F77" t="s">
         <v>13</v>
@@ -1933,24 +1970,24 @@
         <v>13</v>
       </c>
       <c r="H77" t="s">
-        <v>13</v>
+        <v>159</v>
       </c>
     </row>
     <row r="78" spans="1:8">
       <c r="B78" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C78" t="n">
-        <v>3.5165</v>
+        <v>3.8</v>
       </c>
       <c r="D78" t="s">
-        <v>103</v>
+        <v>161</v>
       </c>
       <c r="E78" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="F78" t="s">
-        <v>13</v>
+        <v>163</v>
       </c>
       <c r="G78" t="s">
         <v>13</v>
@@ -1961,16 +1998,16 @@
     </row>
     <row r="79" spans="1:8">
       <c r="B79" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="C79" t="n">
-        <v>3.714</v>
+        <v>3.698</v>
       </c>
       <c r="D79" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E79" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="F79" t="s">
         <v>13</v>
@@ -1984,22 +2021,22 @@
     </row>
     <row r="80" spans="1:8">
       <c r="B80" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>3.423</v>
       </c>
       <c r="D80" t="s">
-        <v>21</v>
+        <v>168</v>
       </c>
       <c r="E80" t="s">
-        <v>13</v>
+        <v>169</v>
       </c>
       <c r="F80" t="s">
-        <v>13</v>
+        <v>169</v>
       </c>
       <c r="G80" t="s">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="H80" t="s">
         <v>13</v>
@@ -2007,22 +2044,22 @@
     </row>
     <row r="81" spans="1:8">
       <c r="B81" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="C81" t="n">
-        <v>3.667</v>
+        <v>3.636</v>
       </c>
       <c r="D81" t="s">
-        <v>73</v>
+        <v>171</v>
       </c>
       <c r="E81" t="s">
-        <v>74</v>
+        <v>172</v>
       </c>
       <c r="F81" t="s">
-        <v>13</v>
+        <v>173</v>
       </c>
       <c r="G81" t="s">
-        <v>13</v>
+        <v>172</v>
       </c>
       <c r="H81" t="s">
         <v>13</v>
@@ -2030,39 +2067,39 @@
     </row>
     <row r="82" spans="1:8">
       <c r="B82" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="C82" t="n">
-        <v>3.795</v>
+        <v>3.5265</v>
       </c>
       <c r="D82" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="E82" t="s">
-        <v>166</v>
+        <v>77</v>
       </c>
       <c r="F82" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="G82" t="s">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="H82" t="s">
-        <v>13</v>
+        <v>177</v>
       </c>
     </row>
     <row r="83" spans="1:8">
       <c r="B83" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="C83" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="D83" t="s">
-        <v>168</v>
+        <v>21</v>
       </c>
       <c r="E83" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="F83" t="s">
         <v>13</v>
@@ -2076,29 +2113,195 @@
     </row>
     <row r="85" spans="1:8">
       <c r="A85" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
     </row>
     <row r="86" spans="1:8">
       <c r="B86" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="C86" t="n">
+        <v>3.895</v>
+      </c>
+      <c r="D86" t="s">
+        <v>181</v>
+      </c>
+      <c r="E86" t="s">
+        <v>182</v>
+      </c>
+      <c r="F86" t="s">
+        <v>13</v>
+      </c>
+      <c r="G86" t="s">
+        <v>13</v>
+      </c>
+      <c r="H86" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
+      <c r="B87" t="s">
+        <v>183</v>
+      </c>
+      <c r="C87" t="n">
+        <v>3.5165</v>
+      </c>
+      <c r="D87" t="s">
+        <v>184</v>
+      </c>
+      <c r="E87" t="s">
+        <v>185</v>
+      </c>
+      <c r="F87" t="s">
+        <v>13</v>
+      </c>
+      <c r="G87" t="s">
+        <v>13</v>
+      </c>
+      <c r="H87" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
+      <c r="B88" t="s">
+        <v>186</v>
+      </c>
+      <c r="C88" t="n">
+        <v>3.714</v>
+      </c>
+      <c r="D88" t="s">
+        <v>187</v>
+      </c>
+      <c r="E88" t="s">
+        <v>66</v>
+      </c>
+      <c r="F88" t="s">
+        <v>13</v>
+      </c>
+      <c r="G88" t="s">
+        <v>13</v>
+      </c>
+      <c r="H88" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="B89" t="s">
+        <v>188</v>
+      </c>
+      <c r="C89" t="n">
+        <v>4</v>
+      </c>
+      <c r="D89" t="s">
+        <v>21</v>
+      </c>
+      <c r="E89" t="s">
+        <v>13</v>
+      </c>
+      <c r="F89" t="s">
+        <v>13</v>
+      </c>
+      <c r="G89" t="s">
+        <v>13</v>
+      </c>
+      <c r="H89" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="B90" t="s">
+        <v>189</v>
+      </c>
+      <c r="C90" t="n">
+        <v>3.667</v>
+      </c>
+      <c r="D90" t="s">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>90</v>
+      </c>
+      <c r="F90" t="s">
+        <v>13</v>
+      </c>
+      <c r="G90" t="s">
+        <v>13</v>
+      </c>
+      <c r="H90" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="B91" t="s">
+        <v>190</v>
+      </c>
+      <c r="C91" t="n">
+        <v>3.795</v>
+      </c>
+      <c r="D91" t="s">
+        <v>191</v>
+      </c>
+      <c r="E91" t="s">
+        <v>192</v>
+      </c>
+      <c r="F91" t="s">
+        <v>192</v>
+      </c>
+      <c r="G91" t="s">
+        <v>13</v>
+      </c>
+      <c r="H91" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="B92" t="s">
+        <v>193</v>
+      </c>
+      <c r="C92" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="D92" t="s">
+        <v>194</v>
+      </c>
+      <c r="E92" t="s">
+        <v>93</v>
+      </c>
+      <c r="F92" t="s">
+        <v>13</v>
+      </c>
+      <c r="G92" t="s">
+        <v>13</v>
+      </c>
+      <c r="H92" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
+      <c r="A94" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
+      <c r="B95" t="s">
+        <v>196</v>
+      </c>
+      <c r="C95" t="n">
         <v>3.9688</v>
       </c>
-      <c r="D86" t="s">
-        <v>171</v>
-      </c>
-      <c r="E86" t="s">
-        <v>172</v>
-      </c>
-      <c r="F86" t="s">
-        <v>13</v>
-      </c>
-      <c r="G86" t="s">
-        <v>13</v>
-      </c>
-      <c r="H86" t="s">
+      <c r="D95" t="s">
+        <v>197</v>
+      </c>
+      <c r="E95" t="s">
+        <v>198</v>
+      </c>
+      <c r="F95" t="s">
+        <v>13</v>
+      </c>
+      <c r="G95" t="s">
+        <v>13</v>
+      </c>
+      <c r="H95" t="s">
         <v>13</v>
       </c>
     </row>

--- a/GradeDistributionsDB/Spring2016/Output/Spring2016 MS.xlsx
+++ b/GradeDistributionsDB/Spring2016/Output/Spring2016 MS.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<s:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <s:workbookPr/>
-  <s:bookViews>
-    <s:workbookView activeTab="0"/>
-  </s:bookViews>
-  <s:sheets>
-    <s:sheet name="Sheet" sheetId="1" r:id="rId1"/>
-  </s:sheets>
-  <s:definedNames/>
-  <s:calcPr calcId="124519" fullCalcOnLoad="1"/>
-</s:workbook>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <bookViews>
+    <workbookView activeTab="0"/>
+  </bookViews>
+  <sheets>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+  </sheets>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+</workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="211">
   <si>
     <t>Course</t>
   </si>
@@ -40,6 +40,9 @@
     <t>% of F's</t>
   </si>
   <si>
+    <t>% of Q Drop's</t>
+  </si>
+  <si>
     <t>AERS-102</t>
   </si>
   <si>
@@ -73,6 +76,9 @@
     <t>1.56%</t>
   </si>
   <si>
+    <t>1.54%</t>
+  </si>
+  <si>
     <t>AERS-304</t>
   </si>
   <si>
@@ -106,6 +112,9 @@
     <t>4.17%</t>
   </si>
   <si>
+    <t>0.46%</t>
+  </si>
+  <si>
     <t>MLSC-222</t>
   </si>
   <si>
@@ -139,6 +148,9 @@
     <t>1.48%</t>
   </si>
   <si>
+    <t>0.74%</t>
+  </si>
+  <si>
     <t>MLSC-422</t>
   </si>
   <si>
@@ -163,6 +175,9 @@
     <t>15.00%</t>
   </si>
   <si>
+    <t>9.09%</t>
+  </si>
+  <si>
     <t>NVSC-205</t>
   </si>
   <si>
@@ -187,6 +202,9 @@
     <t>3.37%</t>
   </si>
   <si>
+    <t>1.11%</t>
+  </si>
+  <si>
     <t>LIEBSCH J</t>
   </si>
   <si>
@@ -202,6 +220,9 @@
     <t>3.51%</t>
   </si>
   <si>
+    <t>1.72%</t>
+  </si>
+  <si>
     <t>NVSC-301</t>
   </si>
   <si>
@@ -220,6 +241,9 @@
     <t>3.57%</t>
   </si>
   <si>
+    <t>3.45%</t>
+  </si>
+  <si>
     <t>NVSC-303</t>
   </si>
   <si>
@@ -262,6 +286,9 @@
     <t>19.05%</t>
   </si>
   <si>
+    <t>4.55%</t>
+  </si>
+  <si>
     <t>NVSC-402</t>
   </si>
   <si>
@@ -310,6 +337,9 @@
     <t>MATTE J</t>
   </si>
   <si>
+    <t>1.45%</t>
+  </si>
+  <si>
     <t>BRUMMETT K</t>
   </si>
   <si>
@@ -322,6 +352,9 @@
     <t>1.01%</t>
   </si>
   <si>
+    <t>1.98%</t>
+  </si>
+  <si>
     <t>HOFFMAN J</t>
   </si>
   <si>
@@ -331,9 +364,6 @@
     <t>23.19%</t>
   </si>
   <si>
-    <t>1.45%</t>
-  </si>
-  <si>
     <t>WHITAKER B</t>
   </si>
   <si>
@@ -343,6 +373,9 @@
     <t>1.90%</t>
   </si>
   <si>
+    <t>0.94%</t>
+  </si>
+  <si>
     <t>DULKE M</t>
   </si>
   <si>
@@ -403,6 +436,9 @@
     <t>3.13%</t>
   </si>
   <si>
+    <t>1.03%</t>
+  </si>
+  <si>
     <t>SCHLATHER B</t>
   </si>
   <si>
@@ -439,9 +475,6 @@
     <t>98.89%</t>
   </si>
   <si>
-    <t>1.11%</t>
-  </si>
-  <si>
     <t>HAUFFE F</t>
   </si>
   <si>
@@ -532,12 +565,6 @@
     <t>81.82%</t>
   </si>
   <si>
-    <t>4.55%</t>
-  </si>
-  <si>
-    <t>9.09%</t>
-  </si>
-  <si>
     <t>SHEHANE M</t>
   </si>
   <si>
@@ -565,6 +592,9 @@
     <t>10.34%</t>
   </si>
   <si>
+    <t>3.33%</t>
+  </si>
+  <si>
     <t>CUNNINGHAM M</t>
   </si>
   <si>
@@ -574,6 +604,9 @@
     <t>45.45%</t>
   </si>
   <si>
+    <t>15.38%</t>
+  </si>
+  <si>
     <t>RANDOLPH D</t>
   </si>
   <si>
@@ -581,6 +614,9 @@
   </si>
   <si>
     <t>BROWN T</t>
+  </si>
+  <si>
+    <t>5.41%</t>
   </si>
   <si>
     <t>HUMPHREYS L</t>
@@ -648,12 +684,11 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
@@ -947,15 +982,15 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H95"/>
+  <dimension ref="A1:I95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -980,1329 +1015,1491 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="B3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" t="n">
         <v>3.7735</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s">
         <v>13</v>
       </c>
-      <c r="H3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="B6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6" t="n">
         <v>3.8662</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="B9" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C9" t="n">
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="B12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" t="n">
         <v>3.9763</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E12" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="B15" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C15" t="n">
         <v>3.9638</v>
       </c>
       <c r="D15" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E15" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="B18" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C18" t="n">
         <v>3.9495</v>
       </c>
       <c r="D18" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E18" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H18" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="B21" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C21" t="n">
         <v>3.2835</v>
       </c>
       <c r="D21" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E21" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F21" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G21" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H21" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="I21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="B24" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C24" t="n">
         <v>3.6365</v>
       </c>
       <c r="D24" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F24" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G24" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H24" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I24" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="B27" t="s">
         <v>46</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="B27" t="s">
-        <v>42</v>
       </c>
       <c r="C27" t="n">
         <v>3.7</v>
       </c>
       <c r="D27" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E27" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F27" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G27" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H27" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I27" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="B30" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C30" t="n">
         <v>3.924</v>
       </c>
       <c r="D30" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E30" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F30" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G30" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H30" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I30" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="B31" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C31" t="n">
         <v>3.73</v>
       </c>
       <c r="D31" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="E31" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F31" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="G31" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H31" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I31" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="B32" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="C32" t="n">
         <v>3.2605</v>
       </c>
       <c r="D32" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="E32" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="F32" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="G32" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="H32" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I32" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="B35" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="C35" t="n">
         <v>4</v>
       </c>
       <c r="D35" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E35" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F35" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G35" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H35" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I35" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="B36" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="C36" t="n">
         <v>3.643</v>
       </c>
       <c r="D36" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="E36" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="F36" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="G36" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H36" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I36" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="B39" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="C39" t="n">
         <v>3.261</v>
       </c>
       <c r="D39" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="E39" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="F39" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="G39" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="H39" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I39" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="B40" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="C40" t="n">
         <v>2.842</v>
       </c>
       <c r="D40" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="E40" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F40" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G40" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H40" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I40" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="B43" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="C43" t="n">
         <v>3.81</v>
       </c>
       <c r="D43" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="E43" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="F43" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G43" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H43" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I43" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="B46" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="C46" t="n">
         <v>3.671</v>
       </c>
       <c r="D46" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="E46" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="F46" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="G46" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H46" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I46" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="B49" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="C49" t="n">
         <v>3.667</v>
       </c>
       <c r="D49" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="E49" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="F49" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G49" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H49" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I49" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="B50" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="C50" t="n">
         <v>4</v>
       </c>
       <c r="D50" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E50" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F50" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G50" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H50" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I50" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="B53" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="C53" t="n">
         <v>2.4</v>
       </c>
       <c r="D53" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="E53" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="F53" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="G53" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="H53" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>104</v>
+      </c>
+      <c r="I53" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="B56" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="C56" t="n">
         <v>4</v>
       </c>
       <c r="D56" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E56" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F56" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G56" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H56" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I56" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="B57" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="C57" t="n">
         <v>3.7393</v>
       </c>
       <c r="D57" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="E57" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="F57" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G57" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H57" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>111</v>
+      </c>
+      <c r="I57" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="B58" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="C58" t="n">
         <v>3.7355</v>
       </c>
       <c r="D58" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="E58" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="F58" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G58" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H58" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I58" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="B59" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="C59" t="n">
         <v>3.7233</v>
       </c>
       <c r="D59" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="E59" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="F59" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G59" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H59" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>118</v>
+      </c>
+      <c r="I59" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="B60" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="C60" t="n">
         <v>3.401</v>
       </c>
       <c r="D60" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="E60" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="F60" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="G60" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="H60" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>125</v>
+      </c>
+      <c r="I60" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="B61" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="C61" t="n">
         <v>4</v>
       </c>
       <c r="D61" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E61" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F61" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G61" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H61" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I61" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="B62" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="C62" t="n">
         <v>4</v>
       </c>
       <c r="D62" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E62" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F62" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G62" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H62" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I62" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="B63" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="C63" t="n">
         <v>3.9855</v>
       </c>
       <c r="D63" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="E63" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="F63" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G63" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H63" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I63" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="B64" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="C64" t="n">
         <v>3.8085</v>
       </c>
       <c r="D64" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="E64" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="F64" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G64" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H64" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I64" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="B67" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="C67" t="n">
         <v>3.207</v>
       </c>
       <c r="D67" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="E67" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="F67" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="G67" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H67" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>139</v>
+      </c>
+      <c r="I67" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="B68" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="C68" t="n">
         <v>3.671</v>
       </c>
       <c r="D68" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="E68" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="F68" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="G68" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="H68" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I68" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="B69" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="C69" t="n">
         <v>3.4953</v>
       </c>
       <c r="D69" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="E69" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="F69" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="G69" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="H69" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I69" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="B70" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="C70" t="n">
         <v>3.989</v>
       </c>
       <c r="D70" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="E70" t="s">
-        <v>141</v>
+        <v>62</v>
       </c>
       <c r="F70" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G70" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H70" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I70" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="B71" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="C71" t="n">
         <v>3.8327</v>
       </c>
       <c r="D71" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="E71" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="F71" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G71" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H71" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I71" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="B74" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="C74" t="n">
         <v>3.482</v>
       </c>
       <c r="D74" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="E74" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="F74" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="G74" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H74" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>161</v>
+      </c>
+      <c r="I74" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="B75" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="C75" t="n">
         <v>3.913</v>
       </c>
       <c r="D75" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="E75" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="F75" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G75" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H75" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I75" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="B76" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="C76" t="n">
         <v>3.8943</v>
       </c>
       <c r="D76" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="E76" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="F76" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G76" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H76" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I76" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="B77" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="C77" t="n">
         <v>3.875</v>
       </c>
       <c r="D77" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="E77" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="F77" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G77" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H77" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>170</v>
+      </c>
+      <c r="I77" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="B78" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="C78" t="n">
         <v>3.8</v>
       </c>
       <c r="D78" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="E78" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="F78" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="G78" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H78" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I78" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="B79" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="C79" t="n">
         <v>3.698</v>
       </c>
       <c r="D79" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="E79" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="F79" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G79" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H79" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I79" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="B80" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="C80" t="n">
         <v>3.423</v>
       </c>
       <c r="D80" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="E80" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="F80" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="G80" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="H80" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I80" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="B81" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="C81" t="n">
         <v>3.636</v>
       </c>
       <c r="D81" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="E81" t="s">
-        <v>172</v>
+        <v>90</v>
       </c>
       <c r="F81" t="s">
-        <v>173</v>
+        <v>53</v>
       </c>
       <c r="G81" t="s">
-        <v>172</v>
+        <v>90</v>
       </c>
       <c r="H81" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I81" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="B82" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="C82" t="n">
         <v>3.5265</v>
       </c>
       <c r="D82" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="E82" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="F82" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="G82" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H82" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>186</v>
+      </c>
+      <c r="I82" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="B83" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="C83" t="n">
         <v>4</v>
       </c>
       <c r="D83" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E83" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F83" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G83" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H83" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I83" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="B86" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="C86" t="n">
         <v>3.895</v>
       </c>
       <c r="D86" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="E86" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="F86" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G86" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H86" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I86" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="B87" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="C87" t="n">
         <v>3.5165</v>
       </c>
       <c r="D87" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="E87" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="F87" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G87" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H87" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I87" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="B88" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="C88" t="n">
         <v>3.714</v>
       </c>
       <c r="D88" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="E88" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="F88" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G88" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H88" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I88" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="B89" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="C89" t="n">
         <v>4</v>
       </c>
       <c r="D89" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E89" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F89" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G89" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H89" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I89" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="B90" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="C90" t="n">
         <v>3.667</v>
       </c>
       <c r="D90" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="E90" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="F90" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G90" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H90" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I90" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="B91" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="C91" t="n">
         <v>3.795</v>
       </c>
       <c r="D91" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="E91" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="F91" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="G91" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H91" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I91" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="B92" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="C92" t="n">
         <v>3.8</v>
       </c>
       <c r="D92" t="s">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="E92" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="F92" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G92" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H92" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I92" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="B95" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="C95" t="n">
         <v>3.9688</v>
       </c>
       <c r="D95" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="E95" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="F95" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G95" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H95" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="I95" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
